--- a/web-scraping-python/noticias.xlsx
+++ b/web-scraping-python/noticias.xlsx
@@ -25,64 +25,64 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Congresso aprova diretrizes do Orçamento de 2022 e triplica fundo eleitoral</t>
-  </si>
-  <si>
-    <t>Redução de jornada: relator de MP inclui programas para gerar emprego e qualificar profissionais</t>
-  </si>
-  <si>
-    <t>Brasil registra mais 1.552 mortes por Covid e ultrapassa 539 mil</t>
-  </si>
-  <si>
-    <t>Variante delta é mais contagiosa, mas estudos não fazem ligação com casos graves</t>
-  </si>
-  <si>
-    <t>Bolsonaro tem sonda retirada e segue sem previsão de alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google remove canal bolsonarista Terça Livre do YouTube </t>
-  </si>
-  <si>
-    <t>Twitter apaga post racista de Mário Frias sobre ativista negro</t>
-  </si>
-  <si>
-    <t>Passageira colada a assento de voo, ratos invasores e mais vídeos</t>
-  </si>
-  <si>
-    <t>Vendedor da Davati expõe disputa na Saúde e chama propina de comissão</t>
-  </si>
-  <si>
-    <t>Líder do governo se diz 'constrangido' com diálogos mostrados na CPI</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/politica/noticia/2021/07/15/congresso-deputados-aprovam-projeto-de-diretrizes-para-o-orcamento-2022-e-preve-r-57-bi-para-fundo-eleitoral-senado-vai-analisar.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/politica/noticia/2021/07/15/mp-da-reducao-de-jornada-relator-inclui-programas-para-gerar-emprego-e-qualificar-profissionais.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/bemestar/coronavirus/noticia/2021/07/15/brasil-registra-mais-de-539-mil-mortes-de-covid-na-pandemia-em-queda-media-movel-e-a-mais-baixa-desde-1o-de-marco.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/bemestar/coronavirus/noticia/2021/07/15/impacto-da-delta-e-maior-por-ser-mais-transmissivel-estudos-ainda-nao-a-ligam-a-casos-mais-severos-dizem-especialistas.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/07/15/bolsonaro-evolui-de-forma-satisfatoria-esta-sem-sonda-e-nao-tem-previsao-de-alta-diz-novo-boletim-medico.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/economia/tecnologia/noticia/2021/07/15/google-remove-canal-bolsonarista-terca-livre-do-youtube-apos-decisao-judicial.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/economia/tecnologia/noticia/2021/07/15/twitter-apaga-comentario-racista-de-mario-frias-sobre-ativista-negro.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/playlist/videos-para-assistir-agora.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/politica/noticia/2021/07/15/cpi-vendedor-da-davati-ve-disputa-de-grupos-na-saude-e-chama-propina-de-comissionamento.ghtml</t>
-  </si>
-  <si>
-    <t>https://g1.globo.com/politica/cpi-da-covid/noticia/2021/07/15/na-cpi-lider-do-governo-se-diz-constrangido-com-dialogos-entre-vendedor-da-davati-e-servidor.ghtml</t>
+    <t>Bolsonaro diz que 'tendência' é vetar fundo eleitoral de R$ 5,7 bilhões para 2022</t>
+  </si>
+  <si>
+    <t>Quebra de sigilo revela 135 ligações entre Dias e diretora de empresa investigada</t>
+  </si>
+  <si>
+    <t>Castillo é declarado presidente do Peru após mais de 1 mês da eleição</t>
+  </si>
+  <si>
+    <t>SP é 1º estado a ter 50% da população com ao menos uma dose da vacina</t>
+  </si>
+  <si>
+    <t>Brasil tem 542 mil mortes por Covid; média móvel é de 1.224 por dia</t>
+  </si>
+  <si>
+    <t>Homem mata namorada e atira em policiais em casa na Grande SP</t>
+  </si>
+  <si>
+    <t>MP denuncia 12 policiais por homicídio de jovens em Paraisópolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saiba como será o voo que levará o bilionário Jeff Bezos ao espaço </t>
+  </si>
+  <si>
+    <t>Sonha em ser um turista espacial? Veja quanto pode custar essa viagem</t>
+  </si>
+  <si>
+    <t>Vai gear no meu estado? Veja a previsão para esta terça-feira</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/politica/noticia/2021/07/19/bolsonaro-diz-que-deve-vetar-fundo-eleitoral-de-r-57-bilhoes-para-2022.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/politica/cpi-da-covid/noticia/2021/07/19/quebra-de-sigilo-revela-contatos-frequentes-de-empresa-investigada-pela-cpi-com-ex-diretor-da-saude.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/mundo/noticia/2021/07/19/pedro-castillo-e-declarado-presidente-eleito-do-peru-mais-de-1-mes-apos-eleicao-presidencial.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/bemestar/vacina/noticia/2021/07/19/vacinacao-contra-covid-19-sp-e-o-1o-estado-a-ter-50percent-da-populacao-com-pelo-menos-uma-dose.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/bemestar/coronavirus/noticia/2021/07/19/brasil-tem-mais-de-542-mil-mortes-por-covid-na-pandemia-media-movel-de-obitos-continua-em-queda.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/07/19/policiais-sao-baleados-em-ocorrencia-de-espancamento-de-crianca-em-casa-na-grande-sp-tres-pessoas-morreram.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/sp/sao-paulo/noticia/2021/07/19/mp-denuncia-12-policiais-por-homicidio-de-nove-jovens-em-paraisopolis.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/economia/tecnologia/inovacao/noticia/2021/07/19/bezos-o-mais-rico-do-mundo-vai-ao-espaco-nesta-terca-com-vovo-pioneira-na-aviacao-e-holandes-de-18-anos-que-pagou-passagem.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/economia/tecnologia/inovacao/noticia/2021/07/19/sonha-em-ser-um-turista-espacial-veja-o-que-planejam-empresas-do-setor.ghtml</t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/natureza/noticia/2021/07/19/massa-de-ar-frio-derruba-temperaturas-pelo-pais-veja-previsao.ghtml</t>
   </si>
 </sst>
 </file>
